--- a/data/n2v/tables/model-1-1536-20230830-68.xlsx
+++ b/data/n2v/tables/model-1-1536-20230830-68.xlsx
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3304,7 +3304,7 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4888,7 +4888,7 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7390,7 +7390,7 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -8236,7 +8236,7 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -9064,7 +9064,7 @@
         </is>
       </c>
       <c r="C480" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -9622,7 +9622,7 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         </is>
       </c>
       <c r="C768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         </is>
       </c>
       <c r="C841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         </is>
       </c>
       <c r="C878" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -16534,7 +16534,7 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -17524,7 +17524,7 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -17650,7 +17650,7 @@
         </is>
       </c>
       <c r="C957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -17776,7 +17776,7 @@
         </is>
       </c>
       <c r="C964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -18028,7 +18028,7 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -19144,7 +19144,7 @@
         </is>
       </c>
       <c r="C1040" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         </is>
       </c>
       <c r="C1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -19612,7 +19612,7 @@
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1140" t="inlineStr">
         <is>
@@ -20998,7 +20998,7 @@
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1143" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1147" t="inlineStr">
         <is>
@@ -22564,7 +22564,7 @@
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1230" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="C1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         </is>
       </c>
       <c r="C1299" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="C1304" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         </is>
       </c>
       <c r="C1324" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
@@ -24706,7 +24706,7 @@
         </is>
       </c>
       <c r="C1349" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
@@ -25444,7 +25444,7 @@
         </is>
       </c>
       <c r="C1390" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
@@ -25516,7 +25516,7 @@
         </is>
       </c>
       <c r="C1394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
@@ -25750,7 +25750,7 @@
         </is>
       </c>
       <c r="C1407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="C1418" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="C1422" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         </is>
       </c>
       <c r="C1424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
@@ -26632,7 +26632,7 @@
         </is>
       </c>
       <c r="C1456" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         </is>
       </c>
       <c r="C1462" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
@@ -26758,7 +26758,7 @@
         </is>
       </c>
       <c r="C1463" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
@@ -27028,7 +27028,7 @@
         </is>
       </c>
       <c r="C1478" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         </is>
       </c>
       <c r="C1480" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="C1482" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         </is>
       </c>
       <c r="C1486" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
@@ -27262,7 +27262,7 @@
         </is>
       </c>
       <c r="C1491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
@@ -27820,7 +27820,7 @@
         </is>
       </c>
       <c r="C1522" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
@@ -28234,7 +28234,7 @@
         </is>
       </c>
       <c r="C1545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1545" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         </is>
       </c>
       <c r="C1548" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1548" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="C1549" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         </is>
       </c>
       <c r="C1551" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1551" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         </is>
       </c>
       <c r="C1561" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1561" t="inlineStr">
         <is>
@@ -28702,7 +28702,7 @@
         </is>
       </c>
       <c r="C1571" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1571" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         </is>
       </c>
       <c r="C1574" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1574" t="inlineStr">
         <is>
@@ -29116,7 +29116,7 @@
         </is>
       </c>
       <c r="C1594" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1594" t="inlineStr">
         <is>
@@ -29206,7 +29206,7 @@
         </is>
       </c>
       <c r="C1599" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1599" t="inlineStr">
         <is>
@@ -29296,7 +29296,7 @@
         </is>
       </c>
       <c r="C1604" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1604" t="inlineStr">
         <is>
